--- a/rehab/StructureDefinition-klgateway-140-citizen.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:48:54+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/StructureDefinition-klgateway-140-citizen.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-21T15:30:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/StructureDefinition-klgateway-140-citizen.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:30:32+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/StructureDefinition-klgateway-140-citizen.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-24T12:49:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/StructureDefinition-klgateway-140-citizen.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T12:49:29+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/StructureDefinition-klgateway-140-citizen.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-citizen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T23:09:09+02:00</t>
+    <t>2024-10-31T15:40:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
